--- a/Expenses2023-01-01-2023-02-09.xlsx
+++ b/Expenses2023-01-01-2023-02-09.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>PRODUCT SALES</t>
   </si>
@@ -36,6 +36,39 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>Potatoes and Onions</t>
+  </si>
+  <si>
+    <t>Onions</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Fries</t>
+  </si>
+  <si>
+    <t>Milk and Bread</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Eggs and Chicken</t>
+  </si>
+  <si>
+    <t>Beef, Onion and Potatoes</t>
+  </si>
+  <si>
+    <t>Ground Beef</t>
   </si>
 </sst>
 </file>
@@ -83,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,6 +153,226 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="I5" s="0">
+        <f>D5*H5/F5*G5</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="0">
+        <f>D5*H6/F6*G6</f>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="B8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="0">
+        <f>D8*H8/F8*G8</f>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="B10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="0">
+        <f>D10*H10/F10*G10</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>0.9900000095367432</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="I11" s="0">
+        <f>D10*H11/F11*G11</f>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="B13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I13" s="0">
+        <f>D13*H13/F13*G13</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="I14" s="0">
+        <f>D13*H14/F14*G14</f>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="B16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="0">
+        <f>D16*H16/F16*G16</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="I17" s="0">
+        <f>D16*H17/F17*G17</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="I18" s="0">
+        <f>D16*H18/F18*G18</f>
+      </c>
+    </row>
+    <row r="19"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Expenses2023-01-01-2023-02-09.xlsx
+++ b/Expenses2023-01-01-2023-02-09.xlsx
@@ -78,13 +78,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(€* #,##0.00_);_(€* (#,##0.00);_(€* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,16 +112,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,13 +176,13 @@
       <c r="F5" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="G5" t="n" s="0">
+      <c r="G5" t="n" s="1">
         <v>1.399999976158142</v>
       </c>
-      <c r="H5" t="n" s="0">
+      <c r="H5" t="n" s="3">
         <v>0.10000000149011612</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5" s="1">
         <f>D5*H5/F5*G5</f>
       </c>
     </row>
@@ -186,193 +193,213 @@
       <c r="F6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="G6" t="n" s="0">
+      <c r="G6" t="n" s="1">
         <v>1.7999999523162842</v>
       </c>
-      <c r="H6" t="n" s="0">
+      <c r="H6" t="n" s="3">
         <v>0.25</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6" s="1">
         <f>D5*H6/F6*G6</f>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="B8" t="s" s="0">
+    <row r="7">
+      <c r="I7" s="2">
+        <f>SUM(I5:I6)</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D8" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E8" t="s" s="0">
+      <c r="D9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F8" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
+      <c r="F9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G9" t="n" s="1">
         <v>1.7999999523162842</v>
       </c>
-      <c r="H8" t="n" s="0">
+      <c r="H9" t="n" s="3">
         <v>0.25</v>
       </c>
-      <c r="I8" s="0">
-        <f>D8*H8/F8*G8</f>
-      </c>
-    </row>
-    <row r="9"/>
+      <c r="I9" s="1">
+        <f>D9*H9/F9*G9</f>
+      </c>
+    </row>
     <row r="10">
-      <c r="B10" t="s" s="0">
+      <c r="I10" s="2">
+        <f>SUM(I9:I9)</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C12" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D10" t="n" s="0">
+      <c r="D12" t="n" s="0">
         <v>9.0</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F10" t="n" s="0">
+      <c r="F12" t="n" s="0">
         <v>26.0</v>
       </c>
-      <c r="G10" t="n" s="0">
+      <c r="G12" t="n" s="1">
         <v>1.5</v>
       </c>
-      <c r="H10" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="I10" s="0">
-        <f>D10*H10/F10*G10</f>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s" s="0">
+      <c r="H12" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>D12*H12/F12*G12</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F11" t="n" s="0">
+      <c r="F13" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="G11" t="n" s="0">
+      <c r="G13" t="n" s="1">
         <v>0.9900000095367432</v>
       </c>
-      <c r="H11" t="n" s="0">
+      <c r="H13" t="n" s="3">
         <v>0.4000000059604645</v>
       </c>
-      <c r="I11" s="0">
-        <f>D10*H11/F11*G11</f>
-      </c>
-    </row>
-    <row r="12"/>
-    <row r="13">
-      <c r="B13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F13" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="G13" t="n" s="0">
-        <v>1.5</v>
-      </c>
-      <c r="H13" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="I13" s="0">
-        <f>D13*H13/F13*G13</f>
+      <c r="I13" s="1">
+        <f>D12*H13/F13*G13</f>
       </c>
     </row>
     <row r="14">
-      <c r="E14" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F14" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>1.7999999523162842</v>
-      </c>
-      <c r="H14" t="n" s="0">
-        <v>0.3499999940395355</v>
-      </c>
-      <c r="I14" s="0">
-        <f>D13*H14/F14*G14</f>
-      </c>
-    </row>
-    <row r="15"/>
+      <c r="I14" s="2">
+        <f>SUM(I12:I13)</f>
+      </c>
+    </row>
     <row r="16">
       <c r="B16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="H16" t="n" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G16" t="n" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="1">
         <f>D16*H16/F16*G16</f>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G17" t="n" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="H17" t="n" s="3">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="I17" s="1">
+        <f>D16*H17/F17*G17</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" s="2">
+        <f>SUM(I16:I17)</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G20" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H20" t="n" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="1">
+        <f>D20*H20/F20*G20</f>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17" t="n" s="0">
+      <c r="F21" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="G17" t="n" s="0">
+      <c r="G21" t="n" s="1">
         <v>1.399999976158142</v>
       </c>
-      <c r="H17" t="n" s="0">
+      <c r="H21" t="n" s="3">
         <v>0.15000000596046448</v>
       </c>
-      <c r="I17" s="0">
-        <f>D16*H17/F17*G17</f>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s" s="0">
+      <c r="I21" s="1">
+        <f>D20*H21/F21*G21</f>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F18" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G18" t="n" s="0">
+      <c r="F22" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G22" t="n" s="1">
         <v>1.7999999523162842</v>
       </c>
-      <c r="H18" t="n" s="0">
+      <c r="H22" t="n" s="3">
         <v>0.6000000238418579</v>
       </c>
-      <c r="I18" s="0">
-        <f>D16*H18/F18*G18</f>
-      </c>
-    </row>
-    <row r="19"/>
+      <c r="I22" s="1">
+        <f>D20*H22/F22*G22</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="I23" s="2">
+        <f>SUM(I20:I22)</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Expenses2023-01-01-2023-02-09.xlsx
+++ b/Expenses2023-01-01-2023-02-09.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>PRODUCT SALES</t>
   </si>
@@ -23,7 +23,10 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>Quantity As Products</t>
+  </si>
+  <si>
+    <t>Quantity As Menus</t>
   </si>
   <si>
     <t>Ingredients</t>
@@ -75,8 +78,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(€* #,##0.00_);_(€* (#,##0.00);_(€* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(€* ###,##0.00_);_(€* (###,##0.00);_(€* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#####0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -115,15 +120,15 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -148,10 +153,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>3</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>5</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>6</v>
@@ -159,245 +164,416 @@
       <c r="I4" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="J4" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n" s="1">
         <v>1.399999976158142</v>
       </c>
-      <c r="H5" t="n" s="3">
+      <c r="I5" t="n" s="3">
         <v>0.10000000149011612</v>
       </c>
-      <c r="I5" s="1">
-        <f>D5*H5/F5*G5</f>
+      <c r="J5" s="1">
+        <f>(D5+E5)*G5/H5*I5</f>
       </c>
     </row>
     <row r="6">
-      <c r="E6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G6" t="n" s="1">
-        <v>1.7999999523162842</v>
-      </c>
-      <c r="H6" t="n" s="3">
+      <c r="F6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H6" t="n" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="I6" t="n" s="3">
         <v>0.25</v>
       </c>
-      <c r="I6" s="1">
-        <f>D5*H6/F6*G6</f>
+      <c r="J6" s="1">
+        <f>(D5+E5)*G6/H6*I6</f>
       </c>
     </row>
     <row r="7">
-      <c r="I7" s="2">
-        <f>SUM(I5:I6)</f>
+      <c r="J7" s="2">
+        <f>SUM(J5:J6)</f>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E9" t="s" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F9" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G9" t="n" s="1">
-        <v>1.7999999523162842</v>
-      </c>
-      <c r="H9" t="n" s="3">
+      <c r="G9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n" s="1">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="I9" t="n" s="3">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="J9" s="1">
+        <f>(D9+E9)*G9/H9*I9</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H10" t="n" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="I10" t="n" s="3">
         <v>0.25</v>
       </c>
-      <c r="I9" s="1">
-        <f>D9*H9/F9*G9</f>
-      </c>
-    </row>
-    <row r="10">
-      <c r="I10" s="2">
-        <f>SUM(I9:I9)</f>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="J10" s="1">
+        <f>(D9+E9)*G10/H10*I10</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" s="2">
+        <f>SUM(J9:J10)</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D12" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F12" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="G12" t="n" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H12" t="n" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>D12*H12/F12*G12</f>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G13" t="n" s="1">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="H13" t="n" s="3">
-        <v>0.4000000059604645</v>
-      </c>
-      <c r="I13" s="1">
-        <f>D12*H13/F13*G13</f>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H13" t="n" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="I13" t="n" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J13" s="1">
+        <f>(D13+E13)*G13/H13*I13</f>
       </c>
     </row>
     <row r="14">
-      <c r="I14" s="2">
-        <f>SUM(I12:I13)</f>
+      <c r="J14" s="2">
+        <f>SUM(J13:J13)</f>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H16" t="n" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="I16" t="n" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="1">
+        <f>(D16+E16)*G16/H16*I16</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="J17" s="2">
+        <f>SUM(J16:J16)</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H19" t="n" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I19" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J19" s="1">
+        <f>(D19+E19)*G19/H19*I19</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F16" t="n" s="0">
+      <c r="G20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n" s="1">
+        <v>0.9900000095367432</v>
+      </c>
+      <c r="I20" t="n" s="3">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="J20" s="1">
+        <f>(D19+E19)*G20/H20*I20</f>
+      </c>
+    </row>
+    <row r="21">
+      <c r="J21" s="2">
+        <f>SUM(J19:J20)</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G23" t="n" s="0">
         <v>26.0</v>
       </c>
-      <c r="G16" t="n" s="1">
+      <c r="H23" t="n" s="1">
         <v>1.5</v>
       </c>
-      <c r="H16" t="n" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>D16*H16/F16*G16</f>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s" s="0">
+      <c r="I23" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="1">
+        <f>(D23+E23)*G23/H23*I23</f>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="n" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="I24" t="n" s="3">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="J24" s="1">
+        <f>(D23+E23)*G24/H24*I24</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="J25" s="2">
+        <f>SUM(J23:J24)</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G27" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H27" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I27" t="n" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="1">
+        <f>(D27+E27)*G27/H27*I27</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F17" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G17" t="n" s="1">
-        <v>1.7999999523162842</v>
-      </c>
-      <c r="H17" t="n" s="3">
-        <v>0.3499999940395355</v>
-      </c>
-      <c r="I17" s="1">
-        <f>D16*H17/F17*G17</f>
-      </c>
-    </row>
-    <row r="18">
-      <c r="I18" s="2">
-        <f>SUM(I16:I17)</f>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D20" t="n" s="0">
+      <c r="G28" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H28" t="n" s="1">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="I28" t="n" s="3">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="J28" s="1">
+        <f>(D27+E27)*G28/H28*I28</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H29" t="n" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="I29" t="n" s="3">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="J29" s="1">
+        <f>(D27+E27)*G29/H29*I29</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="J30" s="2">
+        <f>SUM(J27:J29)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D32" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="E20" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F20" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G20" t="n" s="1">
+      <c r="E32" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G32" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H32" t="n" s="1">
         <v>12.0</v>
       </c>
-      <c r="H20" t="n" s="3">
+      <c r="I32" t="n" s="3">
         <v>0.5</v>
       </c>
-      <c r="I20" s="1">
-        <f>D20*H20/F20*G20</f>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F21" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G21" t="n" s="1">
+      <c r="J32" s="1">
+        <f>(D32+E32)*G32/H32*I32</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G33" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H33" t="n" s="1">
         <v>1.399999976158142</v>
       </c>
-      <c r="H21" t="n" s="3">
+      <c r="I33" t="n" s="3">
         <v>0.15000000596046448</v>
       </c>
-      <c r="I21" s="1">
-        <f>D20*H21/F21*G21</f>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F22" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G22" t="n" s="1">
-        <v>1.7999999523162842</v>
-      </c>
-      <c r="H22" t="n" s="3">
+      <c r="J33" s="1">
+        <f>(D32+E32)*G33/H33*I33</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G34" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H34" t="n" s="1">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="I34" t="n" s="3">
         <v>0.6000000238418579</v>
       </c>
-      <c r="I22" s="1">
-        <f>D20*H22/F22*G22</f>
-      </c>
-    </row>
-    <row r="23">
-      <c r="I23" s="2">
-        <f>SUM(I20:I22)</f>
+      <c r="J34" s="1">
+        <f>(D32+E32)*G34/H34*I34</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="J35" s="2">
+        <f>SUM(J32:J34)</f>
       </c>
     </row>
   </sheetData>

--- a/Expenses2023-01-01-2023-02-09.xlsx
+++ b/Expenses2023-01-01-2023-02-09.xlsx
@@ -128,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:J35"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -576,6 +576,11 @@
         <f>SUM(J32:J34)</f>
       </c>
     </row>
+    <row r="37">
+      <c r="J37" s="2">
+        <f>SUM(J35,J30,J25,J21,J17,J14,J11,J7)</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Expenses2023-01-01-2023-02-09.xlsx
+++ b/Expenses2023-01-01-2023-02-09.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>PRODUCT SALES</t>
   </si>
@@ -72,16 +72,41 @@
   </si>
   <si>
     <t>Ground Beef</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Start Shift</t>
+  </si>
+  <si>
+    <t>End Shift</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Salary/Hour</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(€* #,##0.00_);_(€* (#,##0.00);_(€* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(€* ###,##0.00_);_(€* (###,##0.00);_(€* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#####0.00"/>
+    <numFmt numFmtId="167" formatCode="HH:MM"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -117,18 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:J37"/>
+  <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -581,6 +607,37 @@
         <f>SUM(J35,J30,J25,J21,J17,J14,J11,J7)</f>
       </c>
     </row>
+    <row r="39">
+      <c r="B39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="I41" s="1">
+        <f>SUM(I41:I41)</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
